--- a/Code/Results/Cases/Case_7_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011826762917063</v>
+        <v>1.003498499313791</v>
       </c>
       <c r="D2">
-        <v>1.02863160579959</v>
+        <v>1.021929691345704</v>
       </c>
       <c r="E2">
-        <v>1.02451265269317</v>
+        <v>1.017813788727148</v>
       </c>
       <c r="F2">
-        <v>1.031807451651281</v>
+        <v>1.024926703229852</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052236985034604</v>
+        <v>1.048641857990049</v>
       </c>
       <c r="J2">
-        <v>1.033659401371771</v>
+        <v>1.025575072022808</v>
       </c>
       <c r="K2">
-        <v>1.039705963004104</v>
+        <v>1.033091736302196</v>
       </c>
       <c r="L2">
-        <v>1.035640731949818</v>
+        <v>1.029030404623464</v>
       </c>
       <c r="M2">
-        <v>1.042840753713512</v>
+        <v>1.03604935771129</v>
       </c>
       <c r="N2">
-        <v>1.03512731628411</v>
+        <v>1.027031506260188</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01902926603073</v>
+        <v>1.008319511675821</v>
       </c>
       <c r="D3">
-        <v>1.03418258758633</v>
+        <v>1.0255450689594</v>
       </c>
       <c r="E3">
-        <v>1.030723052596991</v>
+        <v>1.021886982483618</v>
       </c>
       <c r="F3">
-        <v>1.038440281460793</v>
+        <v>1.029457335063535</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054741274365801</v>
+        <v>1.050100390711047</v>
       </c>
       <c r="J3">
-        <v>1.039014281965824</v>
+        <v>1.028585919457697</v>
       </c>
       <c r="K3">
-        <v>1.044396007850578</v>
+        <v>1.035861204917738</v>
       </c>
       <c r="L3">
-        <v>1.040977356877641</v>
+        <v>1.03224726971593</v>
       </c>
       <c r="M3">
-        <v>1.048603847704136</v>
+        <v>1.039726682411722</v>
       </c>
       <c r="N3">
-        <v>1.040489801422819</v>
+        <v>1.030046629443781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023555214676713</v>
+        <v>1.011371567774271</v>
       </c>
       <c r="D4">
-        <v>1.037671750242051</v>
+        <v>1.027833709134427</v>
       </c>
       <c r="E4">
-        <v>1.034631353298877</v>
+        <v>1.024471486556903</v>
       </c>
       <c r="F4">
-        <v>1.04261518723503</v>
+        <v>1.03233133878506</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0562999511627</v>
+        <v>1.051009264080637</v>
       </c>
       <c r="J4">
-        <v>1.042374983004141</v>
+        <v>1.030488793836264</v>
       </c>
       <c r="K4">
-        <v>1.047335815045343</v>
+        <v>1.037607422279069</v>
       </c>
       <c r="L4">
-        <v>1.044329030553007</v>
+        <v>1.034283268103205</v>
       </c>
       <c r="M4">
-        <v>1.052225114617749</v>
+        <v>1.042054605201784</v>
       </c>
       <c r="N4">
-        <v>1.043855275042088</v>
+        <v>1.031952206122228</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025427442729927</v>
+        <v>1.012639105098381</v>
       </c>
       <c r="D5">
-        <v>1.039115233958683</v>
+        <v>1.02878409313873</v>
       </c>
       <c r="E5">
-        <v>1.036249384456812</v>
+        <v>1.025546210178975</v>
       </c>
       <c r="F5">
-        <v>1.044343782125472</v>
+        <v>1.033526274518458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056941060694181</v>
+        <v>1.051383194513797</v>
       </c>
       <c r="J5">
-        <v>1.04376411097919</v>
+        <v>1.031278259225885</v>
       </c>
       <c r="K5">
-        <v>1.048550069402401</v>
+        <v>1.038330889122705</v>
       </c>
       <c r="L5">
-        <v>1.045715003364602</v>
+        <v>1.035128666313258</v>
       </c>
       <c r="M5">
-        <v>1.053722987807071</v>
+        <v>1.043021337667744</v>
       </c>
       <c r="N5">
-        <v>1.045246375738197</v>
+        <v>1.032742792643255</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025740058423221</v>
+        <v>1.012851035444926</v>
       </c>
       <c r="D6">
-        <v>1.039356265206264</v>
+        <v>1.028942988112366</v>
       </c>
       <c r="E6">
-        <v>1.03651962987036</v>
+        <v>1.025725981235644</v>
       </c>
       <c r="F6">
-        <v>1.044632505350198</v>
+        <v>1.033726143848733</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057047892918483</v>
+        <v>1.05144550601652</v>
       </c>
       <c r="J6">
-        <v>1.043995995795882</v>
+        <v>1.031410207945746</v>
       </c>
       <c r="K6">
-        <v>1.048752709256282</v>
+        <v>1.038451747410118</v>
       </c>
       <c r="L6">
-        <v>1.045946395208544</v>
+        <v>1.035270004816055</v>
       </c>
       <c r="M6">
-        <v>1.053973086354453</v>
+        <v>1.043182968614869</v>
       </c>
       <c r="N6">
-        <v>1.045478589857926</v>
+        <v>1.032874928745433</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.02358034906129</v>
+        <v>1.011388564984074</v>
       </c>
       <c r="D7">
-        <v>1.037691128382771</v>
+        <v>1.027846453920487</v>
       </c>
       <c r="E7">
-        <v>1.034653070078229</v>
+        <v>1.024485892876745</v>
       </c>
       <c r="F7">
-        <v>1.042638387212774</v>
+        <v>1.03234735717524</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056308572536633</v>
+        <v>1.051014292370726</v>
       </c>
       <c r="J7">
-        <v>1.042393636186374</v>
+        <v>1.030499383527244</v>
       </c>
       <c r="K7">
-        <v>1.047352123620509</v>
+        <v>1.037617130679632</v>
       </c>
       <c r="L7">
-        <v>1.044347639094886</v>
+        <v>1.034294605284285</v>
       </c>
       <c r="M7">
-        <v>1.052245223913877</v>
+        <v>1.042067569055779</v>
       </c>
       <c r="N7">
-        <v>1.04387395471398</v>
+        <v>1.031962810851784</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01428983032976</v>
+        <v>1.005142125063248</v>
       </c>
       <c r="D8">
-        <v>1.030529618257187</v>
+        <v>1.023162274568367</v>
       </c>
       <c r="E8">
-        <v>1.026635175457501</v>
+        <v>1.019201200027908</v>
       </c>
       <c r="F8">
-        <v>1.03407419109145</v>
+        <v>1.02647009013462</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053096505147485</v>
+        <v>1.049142121413266</v>
       </c>
       <c r="J8">
-        <v>1.03549148222756</v>
+        <v>1.026602209496412</v>
       </c>
       <c r="K8">
-        <v>1.041311335918355</v>
+        <v>1.034037378608414</v>
       </c>
       <c r="L8">
-        <v>1.037466049495115</v>
+        <v>1.030127211613221</v>
       </c>
       <c r="M8">
-        <v>1.044811569565439</v>
+        <v>1.037303058198285</v>
       </c>
       <c r="N8">
-        <v>1.036961998904856</v>
+        <v>1.028060102386816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9968023205912284</v>
+        <v>0.993589564303807</v>
       </c>
       <c r="D9">
-        <v>1.017062990654568</v>
+        <v>1.014500865311931</v>
       </c>
       <c r="E9">
-        <v>1.011594272951629</v>
+        <v>1.009476472499708</v>
       </c>
       <c r="F9">
-        <v>1.018014321549731</v>
+        <v>1.01564852465134</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046932229704927</v>
+        <v>1.045566569957324</v>
       </c>
       <c r="J9">
-        <v>1.022468504690329</v>
+        <v>1.019370740281932</v>
       </c>
       <c r="K9">
-        <v>1.029885168392086</v>
+        <v>1.027362976912724</v>
       </c>
       <c r="L9">
-        <v>1.024502000789998</v>
+        <v>1.022417649074173</v>
       </c>
       <c r="M9">
-        <v>1.030821737004945</v>
+        <v>1.028492716729217</v>
       </c>
       <c r="N9">
-        <v>1.023920527245766</v>
+        <v>1.02081836365659</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.984258561600478</v>
+        <v>0.9854778058164075</v>
       </c>
       <c r="D10">
-        <v>1.007420880231612</v>
+        <v>1.008424960315798</v>
       </c>
       <c r="E10">
-        <v>1.000847200459121</v>
+        <v>1.002684850518677</v>
       </c>
       <c r="F10">
-        <v>1.006542664843707</v>
+        <v>1.008085916157249</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042434958862652</v>
+        <v>1.042982990590929</v>
       </c>
       <c r="J10">
-        <v>1.013110955718895</v>
+        <v>1.014279686749493</v>
       </c>
       <c r="K10">
-        <v>1.021657428706196</v>
+        <v>1.022643747587534</v>
       </c>
       <c r="L10">
-        <v>1.015201175269405</v>
+        <v>1.017005797777186</v>
       </c>
       <c r="M10">
-        <v>1.020794785791851</v>
+        <v>1.022310695659938</v>
       </c>
       <c r="N10">
-        <v>1.014549689481467</v>
+        <v>1.015720080244183</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9785817745213263</v>
+        <v>0.9818574821289191</v>
       </c>
       <c r="D11">
-        <v>1.003063528010982</v>
+        <v>1.005715712018781</v>
       </c>
       <c r="E11">
-        <v>0.995995207400401</v>
+        <v>0.9996632449880377</v>
       </c>
       <c r="F11">
-        <v>1.001364249392003</v>
+        <v>1.00471996799465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040382939036969</v>
+        <v>1.041813453054705</v>
       </c>
       <c r="J11">
-        <v>1.008873543015008</v>
+        <v>1.012004984865207</v>
       </c>
       <c r="K11">
-        <v>1.017927901013373</v>
+        <v>1.020530637403306</v>
       </c>
       <c r="L11">
-        <v>1.010993045504026</v>
+        <v>1.014591514810736</v>
       </c>
       <c r="M11">
-        <v>1.016260483746052</v>
+        <v>1.019553418209153</v>
       </c>
       <c r="N11">
-        <v>1.010306259165503</v>
+        <v>1.01344214802231</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9764328551074739</v>
+        <v>0.9804955423614614</v>
       </c>
       <c r="D12">
-        <v>1.001415218425629</v>
+        <v>1.004696980194538</v>
       </c>
       <c r="E12">
-        <v>0.9941604364214488</v>
+        <v>0.998528046187329</v>
       </c>
       <c r="F12">
-        <v>0.9994061370410792</v>
+        <v>1.003455188584108</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039603758780567</v>
+        <v>1.041371081500036</v>
       </c>
       <c r="J12">
-        <v>1.007269227386734</v>
+        <v>1.011148935151114</v>
       </c>
       <c r="K12">
-        <v>1.016515355217232</v>
+        <v>1.019734743347063</v>
       </c>
       <c r="L12">
-        <v>1.009400374962893</v>
+        <v>1.013683500946582</v>
       </c>
       <c r="M12">
-        <v>1.01454472337866</v>
+        <v>1.018516490668757</v>
       </c>
       <c r="N12">
-        <v>1.008699665225019</v>
+        <v>1.012584882619432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9768956901135917</v>
+        <v>0.9807884775887071</v>
       </c>
       <c r="D13">
-        <v>1.001770176789716</v>
+        <v>1.004916073164324</v>
       </c>
       <c r="E13">
-        <v>0.9945555201295637</v>
+        <v>0.9987721430758222</v>
       </c>
       <c r="F13">
-        <v>0.999827775941405</v>
+        <v>1.003727158486103</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039771685135676</v>
+        <v>1.041466336948041</v>
       </c>
       <c r="J13">
-        <v>1.007614775259453</v>
+        <v>1.011333073759668</v>
       </c>
       <c r="K13">
-        <v>1.01681962119124</v>
+        <v>1.019905971571792</v>
       </c>
       <c r="L13">
-        <v>1.009743389128539</v>
+        <v>1.013878791631808</v>
       </c>
       <c r="M13">
-        <v>1.014914231231281</v>
+        <v>1.018739503502194</v>
       </c>
       <c r="N13">
-        <v>1.009045703815351</v>
+        <v>1.012769282725932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9784049880499219</v>
+        <v>0.9817452603953646</v>
       </c>
       <c r="D14">
-        <v>1.002927901071023</v>
+        <v>1.005631759998403</v>
       </c>
       <c r="E14">
-        <v>0.9958442250528201</v>
+        <v>0.9995696752799484</v>
       </c>
       <c r="F14">
-        <v>1.001203115499273</v>
+        <v>1.004615721910066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040318885656016</v>
+        <v>1.041777050642998</v>
       </c>
       <c r="J14">
-        <v>1.008741564403825</v>
+        <v>1.011934453914015</v>
       </c>
       <c r="K14">
-        <v>1.017811708574022</v>
+        <v>1.020465075946452</v>
       </c>
       <c r="L14">
-        <v>1.010862013439737</v>
+        <v>1.014516690981626</v>
       </c>
       <c r="M14">
-        <v>1.016119317561541</v>
+        <v>1.019467969640203</v>
       </c>
       <c r="N14">
-        <v>1.010174093129553</v>
+        <v>1.013371516909077</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9793294640173171</v>
+        <v>0.982332457279659</v>
       </c>
       <c r="D15">
-        <v>1.003637187756796</v>
+        <v>1.006071056110494</v>
       </c>
       <c r="E15">
-        <v>0.9966338419357903</v>
+        <v>1.000059337875646</v>
       </c>
       <c r="F15">
-        <v>1.002045827338593</v>
+        <v>1.005161246616681</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04065374560187</v>
+        <v>1.041967427850311</v>
       </c>
       <c r="J15">
-        <v>1.009431715011347</v>
+        <v>1.012303492202088</v>
       </c>
       <c r="K15">
-        <v>1.018419288325949</v>
+        <v>1.020808085795915</v>
       </c>
       <c r="L15">
-        <v>1.011547237109117</v>
+        <v>1.014908213875277</v>
       </c>
       <c r="M15">
-        <v>1.01685755153105</v>
+        <v>1.019915091040059</v>
       </c>
       <c r="N15">
-        <v>1.010865223830099</v>
+        <v>1.013741079273848</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9846298585168829</v>
+        <v>0.9857157197286296</v>
       </c>
       <c r="D16">
-        <v>1.007706024209189</v>
+        <v>1.008603061215246</v>
       </c>
       <c r="E16">
-        <v>1.001164806536996</v>
+        <v>1.002883623629701</v>
       </c>
       <c r="F16">
-        <v>1.006881651854973</v>
+        <v>1.008307312656084</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042568836728046</v>
+        <v>1.04305951152679</v>
       </c>
       <c r="J16">
-        <v>1.013388065396783</v>
+        <v>1.014429123532319</v>
       </c>
       <c r="K16">
-        <v>1.021901250952137</v>
+        <v>1.022782476217843</v>
       </c>
       <c r="L16">
-        <v>1.015476445833517</v>
+        <v>1.01716448253211</v>
       </c>
       <c r="M16">
-        <v>1.021091441725793</v>
+        <v>1.022491936679155</v>
       </c>
       <c r="N16">
-        <v>1.014827192686883</v>
+        <v>1.015869729244381</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9878866852485289</v>
+        <v>0.9878083983732763</v>
       </c>
       <c r="D17">
-        <v>1.010207890852348</v>
+        <v>1.010169918983244</v>
       </c>
       <c r="E17">
-        <v>1.003952022018444</v>
+        <v>1.004633114339347</v>
       </c>
       <c r="F17">
-        <v>1.00985657851226</v>
+        <v>1.010255768928287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043741268852274</v>
+        <v>1.043730721908146</v>
       </c>
       <c r="J17">
-        <v>1.015818452868603</v>
+        <v>1.015743280274585</v>
       </c>
       <c r="K17">
-        <v>1.024039275134248</v>
+        <v>1.024001951812701</v>
       </c>
       <c r="L17">
-        <v>1.017891110993476</v>
+        <v>1.018560393037055</v>
       </c>
       <c r="M17">
-        <v>1.023693965503514</v>
+        <v>1.024086335557507</v>
       </c>
       <c r="N17">
-        <v>1.017261031587682</v>
+        <v>1.017185752239958</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9897629293096901</v>
+        <v>0.9890186839778846</v>
       </c>
       <c r="D18">
-        <v>1.011649780396821</v>
+        <v>1.011076326505632</v>
       </c>
       <c r="E18">
-        <v>1.005558811153745</v>
+        <v>1.005645817883626</v>
       </c>
       <c r="F18">
-        <v>1.011571647681559</v>
+        <v>1.01138351964943</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044415121053895</v>
+        <v>1.044117345762503</v>
       </c>
       <c r="J18">
-        <v>1.017218338502554</v>
+        <v>1.01650306911343</v>
       </c>
       <c r="K18">
-        <v>1.025270408383495</v>
+        <v>1.024706568399192</v>
       </c>
       <c r="L18">
-        <v>1.01928227721315</v>
+        <v>1.019367803623612</v>
       </c>
       <c r="M18">
-        <v>1.025193584729978</v>
+        <v>1.02500860972771</v>
       </c>
       <c r="N18">
-        <v>1.018662905219802</v>
+        <v>1.017946620066103</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9903988077228441</v>
+        <v>0.9894296351269763</v>
       </c>
       <c r="D19">
-        <v>1.012138543452588</v>
+        <v>1.011384131798064</v>
       </c>
       <c r="E19">
-        <v>1.006103548014278</v>
+        <v>1.005989830458257</v>
       </c>
       <c r="F19">
-        <v>1.012153105592468</v>
+        <v>1.011766592571408</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044643225053896</v>
+        <v>1.044248355690944</v>
       </c>
       <c r="J19">
-        <v>1.017692728287637</v>
+        <v>1.016761011479799</v>
       </c>
       <c r="K19">
-        <v>1.025687550696242</v>
+        <v>1.02494570625353</v>
       </c>
       <c r="L19">
-        <v>1.019753768775521</v>
+        <v>1.019641973428748</v>
       </c>
       <c r="M19">
-        <v>1.025701870493015</v>
+        <v>1.02532179286556</v>
       </c>
       <c r="N19">
-        <v>1.019137968692793</v>
+        <v>1.018204928740219</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.987539703357933</v>
+        <v>0.9875849499737851</v>
       </c>
       <c r="D20">
-        <v>1.009941281209475</v>
+        <v>1.010002591572724</v>
       </c>
       <c r="E20">
-        <v>1.003654958422161</v>
+        <v>1.00444621653371</v>
       </c>
       <c r="F20">
-        <v>1.009539501601203</v>
+        <v>1.010047628753687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04361652160863</v>
+        <v>1.043659214546167</v>
       </c>
       <c r="J20">
-        <v>1.015559544896414</v>
+        <v>1.01560298447676</v>
       </c>
       <c r="K20">
-        <v>1.023811548912801</v>
+        <v>1.023871808543785</v>
       </c>
       <c r="L20">
-        <v>1.017633842814773</v>
+        <v>1.018411332552591</v>
       </c>
       <c r="M20">
-        <v>1.023416659054769</v>
+        <v>1.023916073986041</v>
       </c>
       <c r="N20">
-        <v>1.017001755936474</v>
+        <v>1.017045257206008</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9779616801645992</v>
+        <v>0.9814639945224867</v>
       </c>
       <c r="D21">
-        <v>1.002587823518042</v>
+        <v>1.005421355530593</v>
       </c>
       <c r="E21">
-        <v>0.9954656549103839</v>
+        <v>0.999335182275087</v>
       </c>
       <c r="F21">
-        <v>1.000799093053716</v>
+        <v>1.004354469589595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040158227929786</v>
+        <v>1.041685775415488</v>
       </c>
       <c r="J21">
-        <v>1.008410612426339</v>
+        <v>1.011757674333426</v>
       </c>
       <c r="K21">
-        <v>1.017520334089092</v>
+        <v>1.020300741471656</v>
       </c>
       <c r="L21">
-        <v>1.010533444083487</v>
+        <v>1.014329160787956</v>
       </c>
       <c r="M21">
-        <v>1.015765342170788</v>
+        <v>1.019253812164911</v>
       </c>
       <c r="N21">
-        <v>1.009842671162298</v>
+        <v>1.013194486281207</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.971704330255604</v>
+        <v>0.9775155046941906</v>
       </c>
       <c r="D22">
-        <v>0.9977906006232242</v>
+        <v>1.002468883867949</v>
       </c>
       <c r="E22">
-        <v>0.9901269314319097</v>
+        <v>0.9960469969857239</v>
       </c>
       <c r="F22">
-        <v>0.9951016427379097</v>
+        <v>1.000690525343608</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037884950146013</v>
+        <v>1.040398806209996</v>
       </c>
       <c r="J22">
-        <v>1.003738719763436</v>
+        <v>1.00927529902875</v>
       </c>
       <c r="K22">
-        <v>1.013405953576499</v>
+        <v>1.017991589835616</v>
       </c>
       <c r="L22">
-        <v>1.005896546242379</v>
+        <v>1.011697172495658</v>
       </c>
       <c r="M22">
-        <v>1.010770765620847</v>
+        <v>1.016248315192483</v>
       </c>
       <c r="N22">
-        <v>1.005164143875941</v>
+        <v>1.010708585718866</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9750450476658745</v>
+        <v>0.9796185015618205</v>
       </c>
       <c r="D23">
-        <v>1.00035106288524</v>
+        <v>1.004041097690318</v>
       </c>
       <c r="E23">
-        <v>0.9929760774336364</v>
+        <v>0.9977974531205945</v>
       </c>
       <c r="F23">
-        <v>0.9981421853519135</v>
+        <v>1.002641138012129</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039099890898546</v>
+        <v>1.041085543286708</v>
       </c>
       <c r="J23">
-        <v>1.006233076025863</v>
+        <v>1.010597585979689</v>
       </c>
       <c r="K23">
-        <v>1.015602918031141</v>
+        <v>1.019221956254934</v>
       </c>
       <c r="L23">
-        <v>1.008371904485784</v>
+        <v>1.013098843088999</v>
       </c>
       <c r="M23">
-        <v>1.013436868814645</v>
+        <v>1.017848851363507</v>
       </c>
       <c r="N23">
-        <v>1.007662042410367</v>
+        <v>1.012032750468943</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.987696561619554</v>
+        <v>0.9876859485640822</v>
       </c>
       <c r="D24">
-        <v>1.01006180424502</v>
+        <v>1.010078222802175</v>
       </c>
       <c r="E24">
-        <v>1.003789247024012</v>
+        <v>1.004530691489667</v>
       </c>
       <c r="F24">
-        <v>1.009682837079801</v>
+        <v>1.010141705323597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043672920352688</v>
+        <v>1.043691540708018</v>
       </c>
       <c r="J24">
-        <v>1.015676588835653</v>
+        <v>1.015666398885025</v>
       </c>
       <c r="K24">
-        <v>1.023914497689214</v>
+        <v>1.023930635298695</v>
       </c>
       <c r="L24">
-        <v>1.017750144412141</v>
+        <v>1.018478707541625</v>
       </c>
       <c r="M24">
-        <v>1.023542018537882</v>
+        <v>1.023993031643978</v>
       </c>
       <c r="N24">
-        <v>1.017118966091533</v>
+        <v>1.017108761670006</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001468527389355</v>
+        <v>0.9966450926614305</v>
       </c>
       <c r="D25">
-        <v>1.020653959520736</v>
+        <v>1.016791057849666</v>
       </c>
       <c r="E25">
-        <v>1.01560107341829</v>
+        <v>1.012042501745426</v>
       </c>
       <c r="F25">
-        <v>1.022291936091551</v>
+        <v>1.018504782265247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048590288966562</v>
+        <v>1.046525082765615</v>
       </c>
       <c r="J25">
-        <v>1.02594657059924</v>
+        <v>1.021285892732924</v>
       </c>
       <c r="K25">
-        <v>1.032939892119877</v>
+        <v>1.029134188522761</v>
       </c>
       <c r="L25">
-        <v>1.027961935717082</v>
+        <v>1.02445670608785</v>
       </c>
       <c r="M25">
-        <v>1.034553780819888</v>
+        <v>1.030822469733075</v>
       </c>
       <c r="N25">
-        <v>1.027403532407207</v>
+        <v>1.022736235843734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003498499313791</v>
+        <v>1.000402013929344</v>
       </c>
       <c r="D2">
-        <v>1.021929691345704</v>
+        <v>1.018609114842631</v>
       </c>
       <c r="E2">
-        <v>1.017813788727148</v>
+        <v>1.016968081296449</v>
       </c>
       <c r="F2">
-        <v>1.024926703229852</v>
+        <v>1.028363414745299</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048641857990049</v>
+        <v>1.047214322291045</v>
       </c>
       <c r="J2">
-        <v>1.025575072022808</v>
+        <v>1.022570707474181</v>
       </c>
       <c r="K2">
-        <v>1.033091736302196</v>
+        <v>1.029815142711015</v>
       </c>
       <c r="L2">
-        <v>1.029030404623464</v>
+        <v>1.028195978753207</v>
       </c>
       <c r="M2">
-        <v>1.03604935771129</v>
+        <v>1.039441253473436</v>
       </c>
       <c r="N2">
-        <v>1.027031506260188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011493441558905</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039787496634594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008319511675821</v>
+        <v>1.004072951516991</v>
       </c>
       <c r="D3">
-        <v>1.0255450689594</v>
+        <v>1.021173545865666</v>
       </c>
       <c r="E3">
-        <v>1.021886982483618</v>
+        <v>1.019811861169228</v>
       </c>
       <c r="F3">
-        <v>1.029457335063535</v>
+        <v>1.031132491692118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050100390711047</v>
+        <v>1.048073746273327</v>
       </c>
       <c r="J3">
-        <v>1.028585919457697</v>
+        <v>1.024453196240417</v>
       </c>
       <c r="K3">
-        <v>1.035861204917738</v>
+        <v>1.031542489714389</v>
       </c>
       <c r="L3">
-        <v>1.03224726971593</v>
+        <v>1.030197369055431</v>
       </c>
       <c r="M3">
-        <v>1.039726682411722</v>
+        <v>1.041381939579558</v>
       </c>
       <c r="N3">
-        <v>1.030046629443781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012122716260859</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041323419450946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011371567774271</v>
+        <v>1.006405286558786</v>
       </c>
       <c r="D4">
-        <v>1.027833709134427</v>
+        <v>1.022802723940545</v>
       </c>
       <c r="E4">
-        <v>1.024471486556903</v>
+        <v>1.021624593890015</v>
       </c>
       <c r="F4">
-        <v>1.03233133878506</v>
+        <v>1.032898353152605</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051009264080637</v>
+        <v>1.048605796102806</v>
       </c>
       <c r="J4">
-        <v>1.030488793836264</v>
+        <v>1.025646551606568</v>
       </c>
       <c r="K4">
-        <v>1.037607422279069</v>
+        <v>1.032633514519846</v>
       </c>
       <c r="L4">
-        <v>1.034283268103205</v>
+        <v>1.031468850809995</v>
       </c>
       <c r="M4">
-        <v>1.042054605201784</v>
+        <v>1.042615298142013</v>
       </c>
       <c r="N4">
-        <v>1.031952206122228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012521550667577</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042299538287239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012639105098381</v>
+        <v>1.007375793799678</v>
       </c>
       <c r="D5">
-        <v>1.02878409313873</v>
+        <v>1.023480558946547</v>
       </c>
       <c r="E5">
-        <v>1.025546210178975</v>
+        <v>1.022380278157859</v>
       </c>
       <c r="F5">
-        <v>1.033526274518458</v>
+        <v>1.033634671633391</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051383194513797</v>
+        <v>1.048823780652387</v>
       </c>
       <c r="J5">
-        <v>1.031278259225885</v>
+        <v>1.026142444289488</v>
       </c>
       <c r="K5">
-        <v>1.038330889122705</v>
+        <v>1.033085909941645</v>
       </c>
       <c r="L5">
-        <v>1.035128666313258</v>
+        <v>1.031997870690128</v>
       </c>
       <c r="M5">
-        <v>1.043021337667744</v>
+        <v>1.043128559077537</v>
       </c>
       <c r="N5">
-        <v>1.032742792643255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012687264012588</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042705748780076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +621,93 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012851035444926</v>
+        <v>1.007538167654425</v>
       </c>
       <c r="D6">
-        <v>1.028942988112366</v>
+        <v>1.023593960109638</v>
       </c>
       <c r="E6">
-        <v>1.025725981235644</v>
+        <v>1.022506790981095</v>
       </c>
       <c r="F6">
-        <v>1.033726143848733</v>
+        <v>1.033757952384423</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05144550601652</v>
+        <v>1.048860049561421</v>
       </c>
       <c r="J6">
-        <v>1.031410207945746</v>
+        <v>1.026225370749466</v>
       </c>
       <c r="K6">
-        <v>1.038451747410118</v>
+        <v>1.03316150467032</v>
       </c>
       <c r="L6">
-        <v>1.035270004816055</v>
+        <v>1.032086375891333</v>
       </c>
       <c r="M6">
-        <v>1.043182968614869</v>
+        <v>1.043214433752383</v>
       </c>
       <c r="N6">
-        <v>1.032874928745433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012714974462545</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042773712617163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011388564984074</v>
+        <v>1.006418293466571</v>
       </c>
       <c r="D7">
-        <v>1.027846453920487</v>
+        <v>1.022811808790788</v>
       </c>
       <c r="E7">
-        <v>1.024485892876745</v>
+        <v>1.021634716265365</v>
       </c>
       <c r="F7">
-        <v>1.03234735717524</v>
+        <v>1.032908215445483</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051014292370726</v>
+        <v>1.04860873108707</v>
       </c>
       <c r="J7">
-        <v>1.030499383527244</v>
+        <v>1.025653200347114</v>
       </c>
       <c r="K7">
-        <v>1.037617130679632</v>
+        <v>1.03263958393989</v>
       </c>
       <c r="L7">
-        <v>1.034294605284285</v>
+        <v>1.031475941088532</v>
       </c>
       <c r="M7">
-        <v>1.042067569055779</v>
+        <v>1.042622176806897</v>
       </c>
       <c r="N7">
-        <v>1.031962810851784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012523772571042</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042304982275726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005142125063248</v>
+        <v>1.001651707544125</v>
       </c>
       <c r="D8">
-        <v>1.023162274568367</v>
+        <v>1.019482119908469</v>
       </c>
       <c r="E8">
-        <v>1.019201200027908</v>
+        <v>1.017934922434003</v>
       </c>
       <c r="F8">
-        <v>1.02647009013462</v>
+        <v>1.029304698495455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049142121413266</v>
+        <v>1.047509792380696</v>
       </c>
       <c r="J8">
-        <v>1.026602209496412</v>
+        <v>1.023212105530178</v>
       </c>
       <c r="K8">
-        <v>1.034037378608414</v>
+        <v>1.030404504821468</v>
       </c>
       <c r="L8">
-        <v>1.030127211613221</v>
+        <v>1.028877312743923</v>
       </c>
       <c r="M8">
-        <v>1.037303058198285</v>
+        <v>1.040101827293076</v>
       </c>
       <c r="N8">
-        <v>1.028060102386816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011707862324806</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040310296850121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.993589564303807</v>
+        <v>0.9929093741602933</v>
       </c>
       <c r="D9">
-        <v>1.014500865311931</v>
+        <v>1.013376416607245</v>
       </c>
       <c r="E9">
-        <v>1.009476472499708</v>
+        <v>1.011197870893175</v>
       </c>
       <c r="F9">
-        <v>1.01564852465134</v>
+        <v>1.022749108993039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045566569957324</v>
+        <v>1.045385787892409</v>
       </c>
       <c r="J9">
-        <v>1.019370740281932</v>
+        <v>1.018715029575591</v>
       </c>
       <c r="K9">
-        <v>1.027362976912724</v>
+        <v>1.026256135675292</v>
       </c>
       <c r="L9">
-        <v>1.022417649074173</v>
+        <v>1.024111845900206</v>
       </c>
       <c r="M9">
-        <v>1.028492716729217</v>
+        <v>1.03548357350067</v>
       </c>
       <c r="N9">
-        <v>1.02081836365659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010204209925694</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036655248341272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9854778058164075</v>
+        <v>0.986883394984682</v>
       </c>
       <c r="D10">
-        <v>1.008424960315798</v>
+        <v>1.009175755630082</v>
       </c>
       <c r="E10">
-        <v>1.002684850518677</v>
+        <v>1.00662224972336</v>
       </c>
       <c r="F10">
-        <v>1.008085916157249</v>
+        <v>1.018350503455856</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042982990590929</v>
+        <v>1.043866336768946</v>
       </c>
       <c r="J10">
-        <v>1.014279686749493</v>
+        <v>1.015627262528808</v>
       </c>
       <c r="K10">
-        <v>1.022643747587534</v>
+        <v>1.023381292003668</v>
       </c>
       <c r="L10">
-        <v>1.017005797777186</v>
+        <v>1.020872958023504</v>
       </c>
       <c r="M10">
-        <v>1.022310695659938</v>
+        <v>1.032396154142285</v>
       </c>
       <c r="N10">
-        <v>1.015720080244183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009175332274707</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034263448396713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9818574821289191</v>
+        <v>0.9846322745298038</v>
       </c>
       <c r="D11">
-        <v>1.005715712018781</v>
+        <v>1.007636309874413</v>
       </c>
       <c r="E11">
-        <v>0.9996632449880377</v>
+        <v>1.005184333984912</v>
       </c>
       <c r="F11">
-        <v>1.00471996799465</v>
+        <v>1.017364572621611</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041813453054705</v>
+        <v>1.043394956267898</v>
       </c>
       <c r="J11">
-        <v>1.012004984865207</v>
+        <v>1.014658644483337</v>
       </c>
       <c r="K11">
-        <v>1.020530637403306</v>
+        <v>1.022415639250249</v>
       </c>
       <c r="L11">
-        <v>1.014591514810736</v>
+        <v>1.020009139172906</v>
       </c>
       <c r="M11">
-        <v>1.019553418209153</v>
+        <v>1.031966283643715</v>
       </c>
       <c r="N11">
-        <v>1.01344214802231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008885394425353</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034361543625233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9804955423614614</v>
+        <v>0.9839403009365684</v>
       </c>
       <c r="D12">
-        <v>1.004696980194538</v>
+        <v>1.007172800994822</v>
       </c>
       <c r="E12">
-        <v>0.998528046187329</v>
+        <v>1.004854166117771</v>
       </c>
       <c r="F12">
-        <v>1.003455188584108</v>
+        <v>1.017338867305756</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041371081500036</v>
+        <v>1.043293878944725</v>
       </c>
       <c r="J12">
-        <v>1.011148935151114</v>
+        <v>1.014440238063919</v>
       </c>
       <c r="K12">
-        <v>1.019734743347063</v>
+        <v>1.022163859680462</v>
       </c>
       <c r="L12">
-        <v>1.013683500946582</v>
+        <v>1.019888955135215</v>
       </c>
       <c r="M12">
-        <v>1.018516490668757</v>
+        <v>1.032141254107443</v>
       </c>
       <c r="N12">
-        <v>1.012584882619432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008839366603588</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034827675934709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9807884775887071</v>
+        <v>0.9844050556686611</v>
       </c>
       <c r="D13">
-        <v>1.004916073164324</v>
+        <v>1.00750896532433</v>
       </c>
       <c r="E13">
-        <v>0.9987721430758222</v>
+        <v>1.005358263522602</v>
       </c>
       <c r="F13">
-        <v>1.003727158486103</v>
+        <v>1.018064347929904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041466336948041</v>
+        <v>1.043478405578596</v>
       </c>
       <c r="J13">
-        <v>1.011333073759668</v>
+        <v>1.014789311215699</v>
       </c>
       <c r="K13">
-        <v>1.019905971571792</v>
+        <v>1.022450150034365</v>
       </c>
       <c r="L13">
-        <v>1.013878791631808</v>
+        <v>1.020339831107432</v>
       </c>
       <c r="M13">
-        <v>1.018739503502194</v>
+        <v>1.03281055754528</v>
       </c>
       <c r="N13">
-        <v>1.012769282725932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008979477878674</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035634497006238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9817452603953646</v>
+        <v>0.9852523770687562</v>
       </c>
       <c r="D14">
-        <v>1.005631759998403</v>
+        <v>1.008104953167608</v>
       </c>
       <c r="E14">
-        <v>0.9995696752799484</v>
+        <v>1.00608594359627</v>
       </c>
       <c r="F14">
-        <v>1.004615721910066</v>
+        <v>1.018909306751355</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041777050642998</v>
+        <v>1.043735524387037</v>
       </c>
       <c r="J14">
-        <v>1.011934453914015</v>
+        <v>1.01528836132976</v>
       </c>
       <c r="K14">
-        <v>1.020465075946452</v>
+        <v>1.022892394169516</v>
       </c>
       <c r="L14">
-        <v>1.014516690981626</v>
+        <v>1.020910812897549</v>
       </c>
       <c r="M14">
-        <v>1.019467969640203</v>
+        <v>1.033499732755901</v>
       </c>
       <c r="N14">
-        <v>1.013371516909077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009160952126954</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036353073093501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.982332457279659</v>
+        <v>0.9857134457147964</v>
       </c>
       <c r="D15">
-        <v>1.006071056110494</v>
+        <v>1.008427199077293</v>
       </c>
       <c r="E15">
-        <v>1.000059337875646</v>
+        <v>1.006452155769461</v>
       </c>
       <c r="F15">
-        <v>1.005161246616681</v>
+        <v>1.019293121169773</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041967427850311</v>
+        <v>1.043862719512071</v>
       </c>
       <c r="J15">
-        <v>1.012303492202088</v>
+        <v>1.015538112793678</v>
       </c>
       <c r="K15">
-        <v>1.020808085795915</v>
+        <v>1.023120867147311</v>
       </c>
       <c r="L15">
-        <v>1.014908213875277</v>
+        <v>1.021182153895525</v>
       </c>
       <c r="M15">
-        <v>1.019915091040059</v>
+        <v>1.033790184466083</v>
       </c>
       <c r="N15">
-        <v>1.013741079273848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009247366029293</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03662027086626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9857157197286296</v>
+        <v>0.9881748502122395</v>
       </c>
       <c r="D16">
-        <v>1.008603061215246</v>
+        <v>1.01014211107704</v>
       </c>
       <c r="E16">
-        <v>1.002883623629701</v>
+        <v>1.008296451922501</v>
       </c>
       <c r="F16">
-        <v>1.008307312656084</v>
+        <v>1.021048092897727</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04305951152679</v>
+        <v>1.044489728585941</v>
       </c>
       <c r="J16">
-        <v>1.014429123532319</v>
+        <v>1.016787306041143</v>
       </c>
       <c r="K16">
-        <v>1.022782476217843</v>
+        <v>1.024294482587048</v>
       </c>
       <c r="L16">
-        <v>1.01716448253211</v>
+        <v>1.022481267311125</v>
       </c>
       <c r="M16">
-        <v>1.022491936679155</v>
+        <v>1.035011846346723</v>
       </c>
       <c r="N16">
-        <v>1.015869729244381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009659012063008</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037547060264125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9878083983732763</v>
+        <v>0.989620384908419</v>
       </c>
       <c r="D17">
-        <v>1.010169918983244</v>
+        <v>1.011146332730536</v>
       </c>
       <c r="E17">
-        <v>1.004633114339347</v>
+        <v>1.009331033849367</v>
       </c>
       <c r="F17">
-        <v>1.010255768928287</v>
+        <v>1.021947100755829</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043730721908146</v>
+        <v>1.044832464245926</v>
       </c>
       <c r="J17">
-        <v>1.015743280274585</v>
+        <v>1.017483364028158</v>
       </c>
       <c r="K17">
-        <v>1.024001951812701</v>
+        <v>1.024961708709689</v>
       </c>
       <c r="L17">
-        <v>1.018560393037055</v>
+        <v>1.023177410656179</v>
       </c>
       <c r="M17">
-        <v>1.024086335557507</v>
+        <v>1.035580957886111</v>
       </c>
       <c r="N17">
-        <v>1.017185752239958</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009879344937617</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.0378675524312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9890186839778846</v>
+        <v>0.9903207744526671</v>
       </c>
       <c r="D18">
-        <v>1.011076326505632</v>
+        <v>1.011625201719929</v>
       </c>
       <c r="E18">
-        <v>1.005645817883626</v>
+        <v>1.009741458712167</v>
       </c>
       <c r="F18">
-        <v>1.01138351964943</v>
+        <v>1.022146574471083</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044117345762503</v>
+        <v>1.044958255198976</v>
       </c>
       <c r="J18">
-        <v>1.01650306911343</v>
+        <v>1.017754505224377</v>
       </c>
       <c r="K18">
-        <v>1.024706568399192</v>
+        <v>1.025246241477908</v>
       </c>
       <c r="L18">
-        <v>1.019367803623612</v>
+        <v>1.023394134098553</v>
       </c>
       <c r="M18">
-        <v>1.02500860972771</v>
+        <v>1.035593673859117</v>
       </c>
       <c r="N18">
-        <v>1.017946620066103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009950143283409</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037639259302738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9894296351269763</v>
+        <v>0.9903361186182242</v>
       </c>
       <c r="D19">
-        <v>1.011384131798064</v>
+        <v>1.011618571678548</v>
       </c>
       <c r="E19">
-        <v>1.005989830458257</v>
+        <v>1.009571765889426</v>
       </c>
       <c r="F19">
-        <v>1.011766592571408</v>
+        <v>1.021695953189318</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044248355690944</v>
+        <v>1.044884706789418</v>
       </c>
       <c r="J19">
-        <v>1.016761011479799</v>
+        <v>1.017632458809576</v>
       </c>
       <c r="K19">
-        <v>1.02494570625353</v>
+        <v>1.025176238179626</v>
       </c>
       <c r="L19">
-        <v>1.019641973428748</v>
+        <v>1.023163630206399</v>
       </c>
       <c r="M19">
-        <v>1.02532179286556</v>
+        <v>1.035087814286445</v>
       </c>
       <c r="N19">
-        <v>1.018204928740219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009884085896054</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036912702094065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9875849499737851</v>
+        <v>0.9884462028161138</v>
       </c>
       <c r="D20">
-        <v>1.010002591572724</v>
+        <v>1.010264903267568</v>
       </c>
       <c r="E20">
-        <v>1.00444621653371</v>
+        <v>1.007807784212573</v>
       </c>
       <c r="F20">
-        <v>1.010047628753687</v>
+        <v>1.019492364380472</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043659214546167</v>
+        <v>1.044265998922019</v>
       </c>
       <c r="J20">
-        <v>1.01560298447676</v>
+        <v>1.016429885733984</v>
       </c>
       <c r="K20">
-        <v>1.023871808543785</v>
+        <v>1.024129626621923</v>
       </c>
       <c r="L20">
-        <v>1.018411332552591</v>
+        <v>1.021714718592865</v>
       </c>
       <c r="M20">
-        <v>1.023916073986041</v>
+        <v>1.033200909993492</v>
       </c>
       <c r="N20">
-        <v>1.017045257206008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009442951773859</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034889728206666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9814639945224867</v>
+        <v>0.9838417145233871</v>
       </c>
       <c r="D21">
-        <v>1.005421355530593</v>
+        <v>1.007051766646886</v>
       </c>
       <c r="E21">
-        <v>0.999335182275087</v>
+        <v>1.004273262477832</v>
       </c>
       <c r="F21">
-        <v>1.004354469589595</v>
+        <v>1.016019132193721</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041685775415488</v>
+        <v>1.043060025079305</v>
       </c>
       <c r="J21">
-        <v>1.011757674333426</v>
+        <v>1.014030893507456</v>
       </c>
       <c r="K21">
-        <v>1.020300741471656</v>
+        <v>1.02190076149275</v>
       </c>
       <c r="L21">
-        <v>1.014329160787956</v>
+        <v>1.019174126339967</v>
       </c>
       <c r="M21">
-        <v>1.019253812164911</v>
+        <v>1.030703242452235</v>
       </c>
       <c r="N21">
-        <v>1.013194486281207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008637548268971</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032871906389619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9775155046941906</v>
+        <v>0.9809142359334279</v>
       </c>
       <c r="D22">
-        <v>1.002468883867949</v>
+        <v>1.005012785415093</v>
       </c>
       <c r="E22">
-        <v>0.9960469969857239</v>
+        <v>1.002050881016157</v>
       </c>
       <c r="F22">
-        <v>1.000690525343608</v>
+        <v>1.013860946452547</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040398806209996</v>
+        <v>1.042286694767689</v>
       </c>
       <c r="J22">
-        <v>1.00927529902875</v>
+        <v>1.012515595379217</v>
       </c>
       <c r="K22">
-        <v>1.017991589835616</v>
+        <v>1.02048558785219</v>
       </c>
       <c r="L22">
-        <v>1.011697172495658</v>
+        <v>1.017581818743089</v>
       </c>
       <c r="M22">
-        <v>1.016248315192483</v>
+        <v>1.029162727060232</v>
       </c>
       <c r="N22">
-        <v>1.010708585718866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008130686800722</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031652677599046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9796185015618205</v>
+        <v>0.9824718470511036</v>
       </c>
       <c r="D23">
-        <v>1.004041097690318</v>
+        <v>1.006097449087948</v>
       </c>
       <c r="E23">
-        <v>0.9977974531205945</v>
+        <v>1.003232543489854</v>
       </c>
       <c r="F23">
-        <v>1.002641138012129</v>
+        <v>1.01500837079964</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041085543286708</v>
+        <v>1.04269940963359</v>
       </c>
       <c r="J23">
-        <v>1.010597585979689</v>
+        <v>1.013321984102547</v>
       </c>
       <c r="K23">
-        <v>1.019221956254934</v>
+        <v>1.02123903885597</v>
       </c>
       <c r="L23">
-        <v>1.013098843088999</v>
+        <v>1.018428900210227</v>
       </c>
       <c r="M23">
-        <v>1.017848851363507</v>
+        <v>1.029982193142672</v>
       </c>
       <c r="N23">
-        <v>1.012032750468943</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008400422730585</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032301237849338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9876859485640822</v>
+        <v>0.9884802480536089</v>
       </c>
       <c r="D24">
-        <v>1.010078222802175</v>
+        <v>1.010285635342632</v>
       </c>
       <c r="E24">
-        <v>1.004530691489667</v>
+        <v>1.007807698726549</v>
       </c>
       <c r="F24">
-        <v>1.010141705323597</v>
+        <v>1.019453203781607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043691540708018</v>
+        <v>1.044263721262791</v>
       </c>
       <c r="J24">
-        <v>1.015666398885025</v>
+        <v>1.016429068035994</v>
       </c>
       <c r="K24">
-        <v>1.023930635298695</v>
+        <v>1.024134499695824</v>
       </c>
       <c r="L24">
-        <v>1.018478707541625</v>
+        <v>1.021699075865009</v>
       </c>
       <c r="M24">
-        <v>1.023993031643978</v>
+        <v>1.03314709973985</v>
       </c>
       <c r="N24">
-        <v>1.017108761670006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009439684725267</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03480607367162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9966450926614305</v>
+        <v>0.9952121178361785</v>
       </c>
       <c r="D25">
-        <v>1.016791057849666</v>
+        <v>1.01498419151682</v>
       </c>
       <c r="E25">
-        <v>1.012042501745426</v>
+        <v>1.012966482767406</v>
       </c>
       <c r="F25">
-        <v>1.018504782265247</v>
+        <v>1.024469324104997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046525082765615</v>
+        <v>1.045957603554247</v>
       </c>
       <c r="J25">
-        <v>1.021285892732924</v>
+        <v>1.019901694696297</v>
       </c>
       <c r="K25">
-        <v>1.029134188522761</v>
+        <v>1.027354266617215</v>
       </c>
       <c r="L25">
-        <v>1.02445670608785</v>
+        <v>1.025366791027376</v>
       </c>
       <c r="M25">
-        <v>1.030822469733075</v>
+        <v>1.036699299750043</v>
       </c>
       <c r="N25">
-        <v>1.022736235843734</v>
+        <v>1.010601040654923</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037617418673464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000402013929344</v>
+        <v>1.000652505896514</v>
       </c>
       <c r="D2">
-        <v>1.018609114842631</v>
+        <v>1.018596601013348</v>
       </c>
       <c r="E2">
-        <v>1.016968081296449</v>
+        <v>1.017165477328468</v>
       </c>
       <c r="F2">
-        <v>1.028363414745299</v>
+        <v>1.028508373867626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047214322291045</v>
+        <v>1.047215140215012</v>
       </c>
       <c r="J2">
-        <v>1.022570707474181</v>
+        <v>1.022813718124884</v>
       </c>
       <c r="K2">
-        <v>1.029815142711015</v>
+        <v>1.029802795315302</v>
       </c>
       <c r="L2">
-        <v>1.028195978753207</v>
+        <v>1.028390739455805</v>
       </c>
       <c r="M2">
-        <v>1.039441253473436</v>
+        <v>1.039584330525884</v>
       </c>
       <c r="N2">
-        <v>1.011493441558905</v>
+        <v>1.013291790660054</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039787496634594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039900732631733</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020088873167804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004072951516991</v>
+        <v>1.004171947052572</v>
       </c>
       <c r="D3">
-        <v>1.021173545865666</v>
+        <v>1.020948675566163</v>
       </c>
       <c r="E3">
-        <v>1.019811861169228</v>
+        <v>1.019886939840041</v>
       </c>
       <c r="F3">
-        <v>1.031132491692118</v>
+        <v>1.031178505338785</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048073746273327</v>
+        <v>1.047967246188631</v>
       </c>
       <c r="J3">
-        <v>1.024453196240417</v>
+        <v>1.024549523107971</v>
       </c>
       <c r="K3">
-        <v>1.031542489714389</v>
+        <v>1.031320351036228</v>
       </c>
       <c r="L3">
-        <v>1.030197369055431</v>
+        <v>1.030271533009602</v>
       </c>
       <c r="M3">
-        <v>1.041381939579558</v>
+        <v>1.041427407752972</v>
       </c>
       <c r="N3">
-        <v>1.012122716260859</v>
+        <v>1.013753481856987</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041323419450946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041359404419709</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020389486222019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006405286558786</v>
+        <v>1.006409089569837</v>
       </c>
       <c r="D4">
-        <v>1.022802723940545</v>
+        <v>1.022443759765861</v>
       </c>
       <c r="E4">
-        <v>1.021624593890015</v>
+        <v>1.021622689087943</v>
       </c>
       <c r="F4">
-        <v>1.032898353152605</v>
+        <v>1.032882100014859</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048605796102806</v>
+        <v>1.048431409727503</v>
       </c>
       <c r="J4">
-        <v>1.025646551606568</v>
+        <v>1.025650259000551</v>
       </c>
       <c r="K4">
-        <v>1.032633514519846</v>
+        <v>1.032278649345381</v>
       </c>
       <c r="L4">
-        <v>1.031468850809995</v>
+        <v>1.031466967811355</v>
       </c>
       <c r="M4">
-        <v>1.042615298142013</v>
+        <v>1.042599226085431</v>
       </c>
       <c r="N4">
-        <v>1.012521550667577</v>
+        <v>1.014046224278541</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042299538287239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042286818363595</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020576612450473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007375793799678</v>
+        <v>1.007340225672149</v>
       </c>
       <c r="D5">
-        <v>1.023480558946547</v>
+        <v>1.023065986845751</v>
       </c>
       <c r="E5">
-        <v>1.022380278157859</v>
+        <v>1.022346506404319</v>
       </c>
       <c r="F5">
-        <v>1.033634671633391</v>
+        <v>1.033592643979175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048823780652387</v>
+        <v>1.048621213621912</v>
       </c>
       <c r="J5">
-        <v>1.026142444289488</v>
+        <v>1.026107743847212</v>
       </c>
       <c r="K5">
-        <v>1.033085909941645</v>
+        <v>1.032675946496631</v>
       </c>
       <c r="L5">
-        <v>1.031997870690128</v>
+        <v>1.031964475188188</v>
       </c>
       <c r="M5">
-        <v>1.043128559077537</v>
+        <v>1.043086987230996</v>
       </c>
       <c r="N5">
-        <v>1.012687264012588</v>
+        <v>1.014167884416686</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042705748780076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042672847550385</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020653534603255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007538167654425</v>
+        <v>1.007496026053885</v>
       </c>
       <c r="D6">
-        <v>1.023593960109638</v>
+        <v>1.023170095258073</v>
       </c>
       <c r="E6">
-        <v>1.022506790981095</v>
+        <v>1.022467697168376</v>
       </c>
       <c r="F6">
-        <v>1.033757952384423</v>
+        <v>1.033711620158774</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048860049561421</v>
+        <v>1.048652771525605</v>
       </c>
       <c r="J6">
-        <v>1.026225370749466</v>
+        <v>1.026184251943342</v>
       </c>
       <c r="K6">
-        <v>1.03316150467032</v>
+        <v>1.032742330361345</v>
       </c>
       <c r="L6">
-        <v>1.032086375891333</v>
+        <v>1.032047715627319</v>
       </c>
       <c r="M6">
-        <v>1.043214433752383</v>
+        <v>1.043168601728196</v>
       </c>
       <c r="N6">
-        <v>1.012714974462545</v>
+        <v>1.014188229878901</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042773712617163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04273743975601</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020666348468684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006418293466571</v>
+        <v>1.006428936650226</v>
       </c>
       <c r="D7">
-        <v>1.022811808790788</v>
+        <v>1.022457491807627</v>
       </c>
       <c r="E7">
-        <v>1.021634716265365</v>
+        <v>1.021638437522166</v>
       </c>
       <c r="F7">
-        <v>1.032908215445483</v>
+        <v>1.032896314853343</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04860873108707</v>
+        <v>1.048436817115047</v>
       </c>
       <c r="J7">
-        <v>1.025653200347114</v>
+        <v>1.025663576044495</v>
       </c>
       <c r="K7">
-        <v>1.03263958393989</v>
+        <v>1.032289311427749</v>
       </c>
       <c r="L7">
-        <v>1.031475941088532</v>
+        <v>1.031479619765309</v>
       </c>
       <c r="M7">
-        <v>1.042622176806897</v>
+        <v>1.042610408754907</v>
       </c>
       <c r="N7">
-        <v>1.012523772571042</v>
+        <v>1.014075635529782</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042304982275726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042295668674787</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020579156337096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001651707544125</v>
+        <v>1.001873042598269</v>
       </c>
       <c r="D8">
-        <v>1.019482119908469</v>
+        <v>1.019413726810389</v>
       </c>
       <c r="E8">
-        <v>1.017934922434003</v>
+        <v>1.018109146351747</v>
       </c>
       <c r="F8">
-        <v>1.029304698495455</v>
+        <v>1.029430300886428</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047509792380696</v>
+        <v>1.047482768572451</v>
       </c>
       <c r="J8">
-        <v>1.023212105530178</v>
+        <v>1.023427051039786</v>
       </c>
       <c r="K8">
-        <v>1.030404504821468</v>
+        <v>1.030336994447188</v>
       </c>
       <c r="L8">
-        <v>1.028877312743923</v>
+        <v>1.02904928012959</v>
       </c>
       <c r="M8">
-        <v>1.040101827293076</v>
+        <v>1.040225847331988</v>
       </c>
       <c r="N8">
-        <v>1.011707862324806</v>
+        <v>1.013533568448399</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040310296850121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040408450414772</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020196650559933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9929093741602933</v>
+        <v>0.9935015541323212</v>
       </c>
       <c r="D9">
-        <v>1.013376416607245</v>
+        <v>1.013821294265324</v>
       </c>
       <c r="E9">
-        <v>1.011197870893175</v>
+        <v>1.01167070373469</v>
       </c>
       <c r="F9">
-        <v>1.022749108993039</v>
+        <v>1.02311627326455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045385787892409</v>
+        <v>1.045617493741433</v>
       </c>
       <c r="J9">
-        <v>1.018715029575591</v>
+        <v>1.019285894871178</v>
       </c>
       <c r="K9">
-        <v>1.026256135675292</v>
+        <v>1.026694041130524</v>
       </c>
       <c r="L9">
-        <v>1.024111845900206</v>
+        <v>1.024577227769396</v>
       </c>
       <c r="M9">
-        <v>1.03548357350067</v>
+        <v>1.035845116696921</v>
       </c>
       <c r="N9">
-        <v>1.010204209925694</v>
+        <v>1.012441465563475</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036655248341272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036941387019782</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019460064963134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.986883394984682</v>
+        <v>0.9877697573344836</v>
       </c>
       <c r="D10">
-        <v>1.009175755630082</v>
+        <v>1.010002236691705</v>
       </c>
       <c r="E10">
-        <v>1.00662224972336</v>
+        <v>1.007331357221005</v>
       </c>
       <c r="F10">
-        <v>1.018350503455856</v>
+        <v>1.018908207322536</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043866336768946</v>
+        <v>1.044290308657035</v>
       </c>
       <c r="J10">
-        <v>1.015627262528808</v>
+        <v>1.016477162301269</v>
       </c>
       <c r="K10">
-        <v>1.023381292003668</v>
+        <v>1.024193215905416</v>
       </c>
       <c r="L10">
-        <v>1.020872958023504</v>
+        <v>1.021569491501063</v>
       </c>
       <c r="M10">
-        <v>1.032396154142285</v>
+        <v>1.032944259085778</v>
       </c>
       <c r="N10">
-        <v>1.009175332274707</v>
+        <v>1.011814098990303</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034263448396713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.0346972130662</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018945242785786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9846322745298038</v>
+        <v>0.9856720072970282</v>
       </c>
       <c r="D11">
-        <v>1.007636309874413</v>
+        <v>1.008633777267643</v>
       </c>
       <c r="E11">
-        <v>1.005184333984912</v>
+        <v>1.006015586485634</v>
       </c>
       <c r="F11">
-        <v>1.017364572621611</v>
+        <v>1.018020610157688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043394956267898</v>
+        <v>1.043906092755432</v>
       </c>
       <c r="J11">
-        <v>1.014658644483337</v>
+        <v>1.015653238775042</v>
       </c>
       <c r="K11">
-        <v>1.022415639250249</v>
+        <v>1.023394689466881</v>
       </c>
       <c r="L11">
-        <v>1.020009139172906</v>
+        <v>1.020824942373836</v>
       </c>
       <c r="M11">
-        <v>1.031966283643715</v>
+        <v>1.032610502051965</v>
       </c>
       <c r="N11">
-        <v>1.008885394425353</v>
+        <v>1.011847756174044</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034361543625233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034871112805946</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018801139358906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9839403009365684</v>
+        <v>0.9850312744648965</v>
       </c>
       <c r="D12">
-        <v>1.007172800994822</v>
+        <v>1.008224585315862</v>
       </c>
       <c r="E12">
-        <v>1.004854166117771</v>
+        <v>1.005725335218473</v>
       </c>
       <c r="F12">
-        <v>1.017338867305756</v>
+        <v>1.018027519224769</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043293878944725</v>
+        <v>1.043832942759</v>
       </c>
       <c r="J12">
-        <v>1.014440238063919</v>
+        <v>1.015482931399061</v>
       </c>
       <c r="K12">
-        <v>1.022163859680462</v>
+        <v>1.023195893537962</v>
       </c>
       <c r="L12">
-        <v>1.019888955135215</v>
+        <v>1.020743662756791</v>
       </c>
       <c r="M12">
-        <v>1.032141254107443</v>
+        <v>1.032817302765726</v>
       </c>
       <c r="N12">
-        <v>1.008839366603588</v>
+        <v>1.011923214291441</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034827675934709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03536224004164</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018774268466737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9844050556686611</v>
+        <v>0.9854616177475337</v>
       </c>
       <c r="D13">
-        <v>1.00750896532433</v>
+        <v>1.008521090579681</v>
       </c>
       <c r="E13">
-        <v>1.005358263522602</v>
+        <v>1.00620058652977</v>
       </c>
       <c r="F13">
-        <v>1.018064347929904</v>
+        <v>1.01873083440043</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043478405578596</v>
+        <v>1.043997642353988</v>
       </c>
       <c r="J13">
-        <v>1.014789311215699</v>
+        <v>1.015799348243845</v>
       </c>
       <c r="K13">
-        <v>1.022450150034365</v>
+        <v>1.023443348798494</v>
       </c>
       <c r="L13">
-        <v>1.020339831107432</v>
+        <v>1.021166311290372</v>
       </c>
       <c r="M13">
-        <v>1.03281055754528</v>
+        <v>1.033464909382754</v>
       </c>
       <c r="N13">
-        <v>1.008979477878674</v>
+        <v>1.012001147699261</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035634497006238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036151774197634</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018836555516158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9852523770687562</v>
+        <v>0.9862468961912756</v>
       </c>
       <c r="D14">
-        <v>1.008104953167608</v>
+        <v>1.009047495167284</v>
       </c>
       <c r="E14">
-        <v>1.00608594359627</v>
+        <v>1.006877806136672</v>
       </c>
       <c r="F14">
-        <v>1.018909306751355</v>
+        <v>1.01953613364271</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043735524387037</v>
+        <v>1.04421962783085</v>
       </c>
       <c r="J14">
-        <v>1.01528836132976</v>
+        <v>1.016239717723599</v>
       </c>
       <c r="K14">
-        <v>1.022892394169516</v>
+        <v>1.023817530206348</v>
       </c>
       <c r="L14">
-        <v>1.020910812897549</v>
+        <v>1.021687972598001</v>
       </c>
       <c r="M14">
-        <v>1.033499732755901</v>
+        <v>1.03411529610107</v>
       </c>
       <c r="N14">
-        <v>1.009160952126954</v>
+        <v>1.012057450700367</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036353073093501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036839621301079</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01892026212223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9857134457147964</v>
+        <v>0.9866747618061055</v>
       </c>
       <c r="D15">
-        <v>1.008427199077293</v>
+        <v>1.009332576524188</v>
       </c>
       <c r="E15">
-        <v>1.006452155769461</v>
+        <v>1.007217268105647</v>
       </c>
       <c r="F15">
-        <v>1.019293121169773</v>
+        <v>1.019898729908479</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043862719512071</v>
+        <v>1.044328002365135</v>
       </c>
       <c r="J15">
-        <v>1.015538112793678</v>
+        <v>1.016458073373931</v>
       </c>
       <c r="K15">
-        <v>1.023120867147311</v>
+        <v>1.024009652458572</v>
       </c>
       <c r="L15">
-        <v>1.021182153895525</v>
+        <v>1.021933170297545</v>
       </c>
       <c r="M15">
-        <v>1.033790184466083</v>
+        <v>1.034384995486988</v>
       </c>
       <c r="N15">
-        <v>1.009247366029293</v>
+        <v>1.012075917365124</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03662027086626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037090403798285</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018961316646712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9881748502122395</v>
+        <v>0.9889689866984358</v>
       </c>
       <c r="D16">
-        <v>1.01014211107704</v>
+        <v>1.010857271339419</v>
       </c>
       <c r="E16">
-        <v>1.008296451922501</v>
+        <v>1.008927670763074</v>
       </c>
       <c r="F16">
-        <v>1.021048092897727</v>
+        <v>1.021546536212611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044489728585941</v>
+        <v>1.044858519157357</v>
       </c>
       <c r="J16">
-        <v>1.016787306041143</v>
+        <v>1.017548995231562</v>
       </c>
       <c r="K16">
-        <v>1.024294482587048</v>
+        <v>1.024997112677788</v>
       </c>
       <c r="L16">
-        <v>1.022481267311125</v>
+        <v>1.023101372973187</v>
       </c>
       <c r="M16">
-        <v>1.035011846346723</v>
+        <v>1.035501793412192</v>
       </c>
       <c r="N16">
-        <v>1.009659012063008</v>
+        <v>1.012155345065132</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037547060264125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.037934320852079</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019164339840235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.989620384908419</v>
+        <v>0.9903269158738552</v>
       </c>
       <c r="D17">
-        <v>1.011146332730536</v>
+        <v>1.011757899198566</v>
       </c>
       <c r="E17">
-        <v>1.009331033849367</v>
+        <v>1.009892309937478</v>
       </c>
       <c r="F17">
-        <v>1.021947100755829</v>
+        <v>1.02238908829843</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044832464245926</v>
+        <v>1.045148685341154</v>
       </c>
       <c r="J17">
-        <v>1.017483364028158</v>
+        <v>1.018161959506559</v>
       </c>
       <c r="K17">
-        <v>1.024961708709689</v>
+        <v>1.025562863478212</v>
       </c>
       <c r="L17">
-        <v>1.023177410656179</v>
+        <v>1.023729086156133</v>
       </c>
       <c r="M17">
-        <v>1.035580957886111</v>
+        <v>1.036015622487352</v>
       </c>
       <c r="N17">
-        <v>1.009879344937617</v>
+        <v>1.012215382035266</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.0378675524312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.0382111514091</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01927653214085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9903207744526671</v>
+        <v>0.9909902307196122</v>
       </c>
       <c r="D18">
-        <v>1.011625201719929</v>
+        <v>1.012191463022173</v>
       </c>
       <c r="E18">
-        <v>1.009741458712167</v>
+        <v>1.010273505221996</v>
       </c>
       <c r="F18">
-        <v>1.022146574471083</v>
+        <v>1.022564410055432</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044958255198976</v>
+        <v>1.045251362462983</v>
       </c>
       <c r="J18">
-        <v>1.017754505224377</v>
+        <v>1.018397991259796</v>
       </c>
       <c r="K18">
-        <v>1.025246241477908</v>
+        <v>1.025803022638345</v>
       </c>
       <c r="L18">
-        <v>1.023394134098553</v>
+        <v>1.023917229990284</v>
       </c>
       <c r="M18">
-        <v>1.035593673859117</v>
+        <v>1.036004696695644</v>
       </c>
       <c r="N18">
-        <v>1.009950143283409</v>
+        <v>1.012222808269732</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037639259302738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.037964237728221</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019316784103885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9903361186182242</v>
+        <v>0.9910096596434821</v>
       </c>
       <c r="D19">
-        <v>1.011618571678548</v>
+        <v>1.012189530169413</v>
       </c>
       <c r="E19">
-        <v>1.009571765889426</v>
+        <v>1.01010787149381</v>
       </c>
       <c r="F19">
-        <v>1.021695953189318</v>
+        <v>1.022116200573114</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044884706789418</v>
+        <v>1.045179911043618</v>
       </c>
       <c r="J19">
-        <v>1.017632458809576</v>
+        <v>1.01828002563821</v>
       </c>
       <c r="K19">
-        <v>1.025176238179626</v>
+        <v>1.025737688931891</v>
       </c>
       <c r="L19">
-        <v>1.023163630206399</v>
+        <v>1.023690761350592</v>
       </c>
       <c r="M19">
-        <v>1.035087814286445</v>
+        <v>1.035501238449171</v>
       </c>
       <c r="N19">
-        <v>1.009884085896054</v>
+        <v>1.012161563746828</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036912702094065</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.037239686648761</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019289187519823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9884462028161138</v>
+        <v>0.9892353311855643</v>
       </c>
       <c r="D20">
-        <v>1.010264903267568</v>
+        <v>1.01097703984275</v>
       </c>
       <c r="E20">
-        <v>1.007807784212573</v>
+        <v>1.00843846167856</v>
       </c>
       <c r="F20">
-        <v>1.019492364380472</v>
+        <v>1.019987308625212</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044265998922019</v>
+        <v>1.044632082078509</v>
       </c>
       <c r="J20">
-        <v>1.016429885733984</v>
+        <v>1.017187613599119</v>
       </c>
       <c r="K20">
-        <v>1.024129626621923</v>
+        <v>1.024829578898958</v>
       </c>
       <c r="L20">
-        <v>1.021714718592865</v>
+        <v>1.022334536234631</v>
       </c>
       <c r="M20">
-        <v>1.033200909993492</v>
+        <v>1.03368758003976</v>
       </c>
       <c r="N20">
-        <v>1.009442951773859</v>
+        <v>1.011904122649671</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034889728206666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.035274878578611</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019076229989839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9838417145233871</v>
+        <v>0.9849594007055266</v>
       </c>
       <c r="D21">
-        <v>1.007051766646886</v>
+        <v>1.00813238371153</v>
       </c>
       <c r="E21">
-        <v>1.004273262477832</v>
+        <v>1.005169919852171</v>
       </c>
       <c r="F21">
-        <v>1.016019132193721</v>
+        <v>1.016726020742561</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043060025079305</v>
+        <v>1.04361303596527</v>
       </c>
       <c r="J21">
-        <v>1.014030893507456</v>
+        <v>1.015099706401879</v>
       </c>
       <c r="K21">
-        <v>1.02190076149275</v>
+        <v>1.022961306340644</v>
       </c>
       <c r="L21">
-        <v>1.019174126339967</v>
+        <v>1.020054004042954</v>
       </c>
       <c r="M21">
-        <v>1.030703242452235</v>
+        <v>1.031397294185977</v>
       </c>
       <c r="N21">
-        <v>1.008637548268971</v>
+        <v>1.011764152410129</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032871906389619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.033421207481916</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018688448907046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9809142359334279</v>
+        <v>0.9822403183678874</v>
       </c>
       <c r="D22">
-        <v>1.005012785415093</v>
+        <v>1.006327175476717</v>
       </c>
       <c r="E22">
-        <v>1.002050881016157</v>
+        <v>1.003116051930238</v>
       </c>
       <c r="F22">
-        <v>1.013860946452547</v>
+        <v>1.014702243196876</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042286694767689</v>
+        <v>1.042958103560678</v>
       </c>
       <c r="J22">
-        <v>1.012515595379217</v>
+        <v>1.013780288289337</v>
       </c>
       <c r="K22">
-        <v>1.02048558785219</v>
+        <v>1.021774323265748</v>
       </c>
       <c r="L22">
-        <v>1.017581818743089</v>
+        <v>1.018626030937271</v>
       </c>
       <c r="M22">
-        <v>1.029162727060232</v>
+        <v>1.029987965915414</v>
       </c>
       <c r="N22">
-        <v>1.008130686800722</v>
+        <v>1.01167112224875</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031652677599046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.032305806664649</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018440580259961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9824718470511036</v>
+        <v>0.983675203845318</v>
       </c>
       <c r="D23">
-        <v>1.006097449087948</v>
+        <v>1.007278718596135</v>
       </c>
       <c r="E23">
-        <v>1.003232543489854</v>
+        <v>1.004198250704735</v>
       </c>
       <c r="F23">
-        <v>1.01500837079964</v>
+        <v>1.015770540872505</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04269940963359</v>
+        <v>1.043303252005996</v>
       </c>
       <c r="J23">
-        <v>1.013321984102547</v>
+        <v>1.014471280408815</v>
       </c>
       <c r="K23">
-        <v>1.02123903885597</v>
+        <v>1.022397845240758</v>
       </c>
       <c r="L23">
-        <v>1.018428900210227</v>
+        <v>1.019376100792704</v>
       </c>
       <c r="M23">
-        <v>1.029982193142672</v>
+        <v>1.03073019194007</v>
       </c>
       <c r="N23">
-        <v>1.008400422730585</v>
+        <v>1.011678620104747</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032301237849338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.032893235330901</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018570390943788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9884802480536089</v>
+        <v>0.989268023758626</v>
       </c>
       <c r="D24">
-        <v>1.010285635342632</v>
+        <v>1.010996201641458</v>
       </c>
       <c r="E24">
-        <v>1.007807698726549</v>
+        <v>1.008437416079487</v>
       </c>
       <c r="F24">
-        <v>1.019453203781607</v>
+        <v>1.019947299754185</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044263721262791</v>
+        <v>1.044628971094175</v>
       </c>
       <c r="J24">
-        <v>1.016429068035994</v>
+        <v>1.017185544217444</v>
       </c>
       <c r="K24">
-        <v>1.024134499695824</v>
+        <v>1.024832924809845</v>
       </c>
       <c r="L24">
-        <v>1.021699075865009</v>
+        <v>1.022317963859029</v>
       </c>
       <c r="M24">
-        <v>1.03314709973985</v>
+        <v>1.033632945459089</v>
       </c>
       <c r="N24">
-        <v>1.009439684725267</v>
+        <v>1.011897440128161</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03480607367162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.035190590947993</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01907483111667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9952121178361785</v>
+        <v>0.9956965289451439</v>
       </c>
       <c r="D25">
-        <v>1.01498419151682</v>
+        <v>1.015286465628293</v>
       </c>
       <c r="E25">
-        <v>1.012966482767406</v>
+        <v>1.013352537666766</v>
       </c>
       <c r="F25">
-        <v>1.024469324104997</v>
+        <v>1.024766506840478</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045957603554247</v>
+        <v>1.046117389692607</v>
       </c>
       <c r="J25">
-        <v>1.019901694696297</v>
+        <v>1.020369595114416</v>
       </c>
       <c r="K25">
-        <v>1.027354266617215</v>
+        <v>1.027652024646959</v>
       </c>
       <c r="L25">
-        <v>1.025366791027376</v>
+        <v>1.025747049461674</v>
       </c>
       <c r="M25">
-        <v>1.036699299750043</v>
+        <v>1.036992146130389</v>
       </c>
       <c r="N25">
-        <v>1.010601040654923</v>
+        <v>1.012696838099651</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037617418673464</v>
+        <v>1.037849187842849</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019655665844692</v>
       </c>
     </row>
   </sheetData>
